--- a/StockDumpsSource/Maruti Suzuki.xlsx
+++ b/StockDumpsSource/Maruti Suzuki.xlsx
@@ -4086,7 +4086,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>5130.80</v>
+        <v>5505.00</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <v>154957.74</v>
+        <v>166295.04</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
